--- a/Matuchet/Оборудование по ЛОК 2024/Заказы по ЛОК 2024 сводная таблица.xlsx
+++ b/Matuchet/Оборудование по ЛОК 2024/Заказы по ЛОК 2024 сводная таблица.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="119">
   <si>
     <t>Руководитель группы по ЛОК</t>
   </si>
@@ -361,13 +361,34 @@
     <t>Итоговое расхождение</t>
   </si>
   <si>
-    <t>Статус покупки (по накладным)</t>
-  </si>
-  <si>
-    <t>4+30  + 10 + 10???? Это для АР и Пичугина или только Пичугина???</t>
-  </si>
-  <si>
-    <t>1 + 9 ???</t>
+    <t>Наличие накладной</t>
+  </si>
+  <si>
+    <t>есть</t>
+  </si>
+  <si>
+    <t>есть, но +1 допонительно</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Излишки оборудования по ЛОК2024</t>
+  </si>
+  <si>
+    <t>Топор Fiskars</t>
+  </si>
+  <si>
+    <t>Фотоловушка</t>
+  </si>
+  <si>
+    <t>Лупы</t>
+  </si>
+  <si>
+    <t>Бинокли</t>
+  </si>
+  <si>
+    <t>Газ</t>
   </si>
 </sst>
 </file>
@@ -3008,22 +3029,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="32.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="29.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="16.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="20.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="29.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="16.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3031,16 +3053,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3050,14 +3075,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3067,14 +3095,17 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3084,14 +3115,17 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3101,14 +3135,17 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3118,14 +3155,17 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -3135,28 +3175,37 @@
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -3164,28 +3213,35 @@
         <v>22</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -3195,42 +3251,57 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -3240,14 +3311,17 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -3255,14 +3329,15 @@
         <v>22</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3272,14 +3347,17 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="8">
+      <c r="F16" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3289,14 +3367,17 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="8">
+      <c r="F17" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -3306,14 +3387,17 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="8">
+      <c r="F18" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -3323,45 +3407,57 @@
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="8">
+      <c r="F19" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3371,14 +3467,17 @@
       <c r="C22">
         <v>100</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="8">
+      <c r="F22" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3388,14 +3487,17 @@
       <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3405,28 +3507,37 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="8">
+      <c r="F24" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="8">
+      <c r="F25" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
@@ -3434,14 +3545,15 @@
         <v>22</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="10">
+      <c r="F26" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -3449,14 +3561,15 @@
         <v>22</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E27" s="9">
+      <c r="F27" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
         <v>72</v>
       </c>
@@ -3464,28 +3577,35 @@
         <v>22</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="10">
+      <c r="F28" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="8">
+      <c r="F29" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -3495,14 +3615,17 @@
       <c r="C30">
         <v>100</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="8">
+      <c r="F30" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
         <v>72</v>
       </c>
@@ -3512,56 +3635,77 @@
       <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="9">
+      <c r="F31" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>84</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="9">
+      <c r="F32" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>84</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="9">
+      <c r="F33" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>84</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E34" s="9">
+      <c r="F34" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -3571,14 +3715,17 @@
       <c r="C35" s="5">
         <v>6</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="10">
+      <c r="F35" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -3586,43 +3733,99 @@
         <v>22</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" t="s">
+      <c r="D36" s="5"/>
+      <c r="E36" t="s">
         <v>91</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>93</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="8" t="s">
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="9">
+      <c r="F37" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="5">
+        <v>7</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
         <v>96</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Matuchet/Оборудование по ЛОК 2024/Заказы по ЛОК 2024 сводная таблица.xlsx
+++ b/Matuchet/Оборудование по ЛОК 2024/Заказы по ЛОК 2024 сводная таблица.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="120">
   <si>
     <t>Руководитель группы по ЛОК</t>
   </si>
@@ -373,13 +373,16 @@
     <t>нет</t>
   </si>
   <si>
+    <t>фотоловушка</t>
+  </si>
+  <si>
+    <t>Лупа</t>
+  </si>
+  <si>
     <t>Излишки оборудования по ЛОК2024</t>
   </si>
   <si>
     <t>Топор Fiskars</t>
-  </si>
-  <si>
-    <t>Фотоловушка</t>
   </si>
   <si>
     <t>Лупы</t>
@@ -3032,7 +3035,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3781,14 +3784,42 @@
         <v>7</v>
       </c>
     </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
     <row r="41" spans="3:3">
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="3:4">
       <c r="C42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3802,30 +3833,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
     <row r="45" spans="3:4">
       <c r="C45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
